--- a/design_feature_follow.xlsx
+++ b/design_feature_follow.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/git/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8DD5A7-D62F-9E42-8886-1FF9FA38D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD14AD-36E1-5F42-86FB-0AA960537B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27460" windowHeight="16940" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
   </bookViews>
   <sheets>
-    <sheet name="フォロー機能概要" sheetId="1" r:id="rId1"/>
-    <sheet name="フォロー機能画面遷移図" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="フォロー機能" sheetId="1" r:id="rId1"/>
+    <sheet name="日報承認機能" sheetId="5" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="195">
   <si>
     <t>1. 社員同士のフォロー機能・フォローした社員の日報を一覧表示する機能</t>
     <phoneticPr fontId="1"/>
@@ -312,10 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>showFollower.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面:タイムライン</t>
     <rPh sb="0" eb="2">
       <t>ガメn</t>
@@ -333,43 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テーブル形式でフォロワーを表示（社員id昇順）
-・アンフォローリンク表示（遷移先：followAction.unfollow()メソッド ）
-・フォローリンク表示（遷移先：followAction.follow()メソッド）
-・ページング表示</t>
-    <rPh sb="4" eb="6">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シャイn</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウジュn</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・タイムラインを表示するshowTimeline()メソッドを追加</t>
     <rPh sb="8" eb="10">
       <t>ヒョウ</t>
@@ -389,19 +350,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・フォロワーを表示するindex()メソッドを追加</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1629,10 +1577,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面入力項目がないので不要</t>
     <rPh sb="0" eb="4">
       <t>ガメn</t>
@@ -1795,12 +1739,867 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>follows/index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンフォローする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォローしている従業員を表示するindex()メソッドを追加</t>
+    <rPh sb="9" eb="12">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テーブル形式でフォローしている従業員を表示（社員id昇順）
+・アンフォローリンク表示（リンククリック後はfollowAction.destroy()呼び出し ）
+・ページング表示</t>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シャイn</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウジュn</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課長や部長などの権限追加・および部下の日報を承認する機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要</t>
+    <rPh sb="0" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応内容</t>
+    <rPh sb="0" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeAction.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employees/index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employees/show.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した権限名を表示できるように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員詳細</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した権限名を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員編集</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した権限名を選択可能にする</t>
+    <rPh sb="0" eb="1">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employees/_form.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した権限名を選択できるように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限リストをjspに渡す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員登録</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した権限名を選択可能にする</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employees/new.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entryNew()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Employee.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限リストを取得するJPQLを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeConverter.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeView.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ（日報承認）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ニッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員一覧</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署の列を追加し、所属部署名を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署名を表示する</t>
+    <rPh sb="0" eb="5">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署を選択可能にする</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業部</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ビ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="3">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意に識別するid（自動採番）</t>
+    <rPh sb="0" eb="2">
+      <t>イチイニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シキベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限名</t>
+    <rPh sb="0" eb="3">
+      <t>ケンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="1">
+      <t>シャイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限id</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_flagを削除し、role_idを追加する</t>
+    <rPh sb="11" eb="13">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Role.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署をリクエストスコープに格納するように修正</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署カラムを追加し、所属部署名を表示するように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>b</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した所属部署名を表示できるように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署をjspに渡す</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワタス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署を選択できるように修正</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署名</t>
+    <rPh sb="0" eb="1">
+      <t>ブセィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：emloyees</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：roles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_flag削除し、role_idを追加する</t>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：departments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Department.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限関連項目を追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カンレn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署関連項目を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カンレn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeService.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署idを追加</t>
+    <rPh sb="0" eb="4">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況を表示する
+ログインユーザの権限が一般以外の場合、担当部署の従業員の日報に承認ボタンを表示する</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジス</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウニンボ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dep_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署id</t>
+    <rPh sb="0" eb="1">
+      <t>ブセィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：emp_depts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：reports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>report_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員id</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：emp_roles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approver_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:承認権限あり　0:承認権限なし</t>
+    <rPh sb="2" eb="6">
+      <t>ショウニ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ショウニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1922,8 +2721,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1954,8 +2761,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1978,13 +2791,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,6 +3018,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2308,13 +3375,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58305</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>166830</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2329,10 +3396,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="698500" y="17924895"/>
-          <a:ext cx="10154805" cy="6573982"/>
-          <a:chOff x="698500" y="14351000"/>
-          <a:chExt cx="9461500" cy="5638800"/>
+          <a:off x="698500" y="17924893"/>
+          <a:ext cx="10530032" cy="6314210"/>
+          <a:chOff x="698500" y="14350999"/>
+          <a:chExt cx="9811109" cy="5651718"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2348,10 +3415,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="698500" y="14351000"/>
-            <a:ext cx="9461500" cy="5638800"/>
-            <a:chOff x="698500" y="14351000"/>
-            <a:chExt cx="9461500" cy="5638800"/>
+            <a:off x="698500" y="14350999"/>
+            <a:ext cx="9811109" cy="5651718"/>
+            <a:chOff x="698500" y="14350999"/>
+            <a:chExt cx="9811109" cy="5651718"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2367,10 +3434,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="698500" y="14351000"/>
-              <a:ext cx="9461500" cy="5638800"/>
+              <a:off x="698500" y="14350999"/>
+              <a:ext cx="9811109" cy="5651718"/>
               <a:chOff x="660400" y="7469466"/>
-              <a:chExt cx="9461500" cy="5344834"/>
+              <a:chExt cx="9811109" cy="5357079"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -2387,9 +3454,9 @@
             <xdr:grpSpPr>
               <a:xfrm>
                 <a:off x="660400" y="7469466"/>
-                <a:ext cx="9461500" cy="5344834"/>
+                <a:ext cx="9811109" cy="5357079"/>
                 <a:chOff x="660400" y="7469466"/>
-                <a:chExt cx="9461500" cy="5344834"/>
+                <a:chExt cx="9811109" cy="5357079"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:pic>
@@ -2657,7 +3724,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="5676900" y="11049000"/>
+                  <a:off x="6026509" y="11061245"/>
                   <a:ext cx="4445000" cy="1765300"/>
                 </a:xfrm>
                 <a:prstGeom prst="wedgeRectCallout">
@@ -2690,7 +3757,7 @@
                   <a:pPr algn="l"/>
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>・フォロワーを一覧表示</a:t>
+                    <a:t>・フォローしている従業員を一覧表示</a:t>
                   </a:r>
                   <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                 </a:p>
@@ -2714,31 +3781,7 @@
                   <a:pPr algn="l"/>
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>・フォローリンククリック後</a:t>
-                  </a:r>
-                  <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>　フォロー処理後、フォロワー一覧ページを再表示</a:t>
-                  </a:r>
-                  <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>・アンフォローリンククリック後</a:t>
-                  </a:r>
-                  <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>　アンフォロー処理後、フォロワー一覧ページを再表示</a:t>
+                    <a:t>・アンフォローリンククリック後、アンフォロー処理を行い、タイムラインページを再表示</a:t>
                   </a:r>
                   <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                 </a:p>
@@ -2904,24 +3947,13 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>フォロワー管理</a:t>
+                  <a:t>フォロー管理</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>あなたをフォローしている従業員を表示しています。</a:t>
-                </a:r>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -3105,40 +4137,11 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>フォロワー管理</a:t>
+              <a:t>フォロー管理</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="図 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C405E2C5-21DC-33AE-B1EE-A11AF538DFFA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="977900" y="16852900"/>
-            <a:ext cx="3784600" cy="774700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3429,7 +4432,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
               <a:srcRect r="32271"/>
               <a:stretch/>
             </xdr:blipFill>
@@ -3867,25 +4870,168 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>716972</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>53110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84265201-7EE7-63E8-43EE-AE068C217C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082386" y="20752955"/>
+          <a:ext cx="3314700" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>220606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983CE758-A798-7B8E-97E0-656F2A6CE4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="27444700"/>
+          <a:ext cx="7772400" cy="2252606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86008</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050EA96B-EE2F-6B82-3121-DCC42481F0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985000" y="28321000"/>
+          <a:ext cx="1051208" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>245341</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>303069</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A700F2C-659B-0450-42B3-65AF8EB423DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFB0AE1-7D5C-3B4D-95D3-C142DD1CEE8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3893,10 +5039,305 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="432955" y="17808864"/>
-          <a:ext cx="22860000" cy="6624204"/>
+          <a:off x="6921500" y="28270200"/>
+          <a:ext cx="1143000" cy="1473200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形吹き出し 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9BD32F-29EF-374E-A625-6C0DFC5F4D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="31165800"/>
+          <a:ext cx="5486400" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59469"/>
+            <a:gd name="adj2" fmla="val 20164"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ログインユーザの権限＝管理者の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認状況が未承認の場合は承認欄に承認ボタンを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ログインユーザの権限＝一般の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認欄は表示しない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ログインユーザがそれ以外の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　同じ部署の日報で承認状況が未承認の場合は承認欄に承認ボタンを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　（承認ボタン押下後はフラッシュメッセージを表示する）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98708</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C37B3EF-F93D-3327-6CE3-122DF91CFB94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5092700" y="28867100"/>
+          <a:ext cx="1051208" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F7714-F863-3A44-A84C-D1172541B809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="28854400"/>
+          <a:ext cx="1143000" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形吹き出し 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBBF0A5-CBFA-7F40-8506-D9CC63B29E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="31178500"/>
+          <a:ext cx="1041400" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3917,23 +5358,1102 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>未着手</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認状況を表示する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9E2EAF-58DE-E93A-E02C-06D02F5AE3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="635000" y="20690629"/>
+          <a:ext cx="4775200" cy="4277571"/>
+          <a:chOff x="533400" y="21528829"/>
+          <a:chExt cx="4775200" cy="4277571"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90303242-4A95-0666-17A7-956471BC59E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="546100" y="24853900"/>
+            <a:ext cx="4762500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC27A076-565B-9C05-82A9-BC6391E8630E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="21723"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="533400" y="21528829"/>
+            <a:ext cx="4775200" cy="3337772"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="四角形吹き出し 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9EBB5E-13A9-014B-89F7-8ED0EEBFFEF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2997200" y="24638000"/>
+            <a:ext cx="1676400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -101684"/>
+              <a:gd name="adj2" fmla="val 75403"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>所属部署を表示する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E574576C-7578-4779-28E0-9C8894BBD34A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="24917400"/>
+            <a:ext cx="1358900" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>所属部署</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DB8961-545A-DE49-9199-BC50B7285492}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="762000" y="25196800"/>
+            <a:ext cx="1231900" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31195AF0-9B40-1549-8930-451B875A2C82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="24879300"/>
+            <a:ext cx="1549400" cy="787400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="グループ化 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD1ACB2-ECE5-DEE8-6B38-611672CD34E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="596900" y="17119600"/>
+          <a:ext cx="7010400" cy="3022600"/>
+          <a:chOff x="596900" y="14833600"/>
+          <a:chExt cx="7010400" cy="3022600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10323A88-784B-6764-DDA8-C78DCC88EC9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="6802"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="596900" y="14833600"/>
+            <a:ext cx="6045200" cy="2933700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4901C48-62BC-1A24-6F41-0D439EA59222}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838200" y="17513300"/>
+            <a:ext cx="5778500" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBB3C3A-0BAD-F349-8CE2-D1891FEF1D27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="762000" y="17513300"/>
+            <a:ext cx="5918200" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="四角形吹き出し 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780C7A1D-3C84-D240-B82A-13270FF15865}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6083300" y="16776700"/>
+            <a:ext cx="1524000" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>所属部署を表示する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEB4E79-4370-BB40-A5F9-EE26AB0DE83E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3302000" y="16548100"/>
+            <a:ext cx="723900" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="四角形吹き出し 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D39A11-73EC-1945-9A74-FD5DAC136177}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3898900" y="15798800"/>
+            <a:ext cx="1689100" cy="622300"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -41886"/>
+              <a:gd name="adj2" fmla="val 81855"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>追加した権限も表示する</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123592</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="グループ化 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C223EB-B98D-766E-7D4B-34FDA238245C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="622300" y="25692100"/>
+          <a:ext cx="6498992" cy="4457700"/>
+          <a:chOff x="622300" y="23952200"/>
+          <a:chExt cx="6498992" cy="4457700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE74BD9F-6FD4-AF4C-9ACB-038E11202343}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="622300" y="27457400"/>
+            <a:ext cx="6477000" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="図 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0484FE-CFBA-F583-969B-774886721ED7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="18895"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="635000" y="23952200"/>
+            <a:ext cx="6486292" cy="3543300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1705D44C-3776-1E4F-A1F2-734F8677EFD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="800100" y="27038300"/>
+            <a:ext cx="774700" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="四角形吹き出し 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7501B4E4-ECD5-9B4D-A03C-29E260EA4257}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1651000" y="26339800"/>
+            <a:ext cx="1993900" cy="520700"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -60227"/>
+              <a:gd name="adj2" fmla="val 82012"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>追加した権限も表示する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="四角形吹き出し 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640F4F4D-AC42-5940-BEBA-66F63883C662}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133600" y="27101800"/>
+            <a:ext cx="1752600" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -55500"/>
+              <a:gd name="adj2" fmla="val 85081"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>所属部署を表示する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44F0718-AF0F-BA4A-BB71-D63203A6F8BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="825500" y="27609800"/>
+            <a:ext cx="1358900" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>所属部署</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E127BBA-FD08-2449-9BEA-8F02445E9010}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="901700" y="27889200"/>
+            <a:ext cx="1231900" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D924B5C7-D7CA-6047-AB21-5208DD9819A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="749300" y="27571700"/>
+            <a:ext cx="1549400" cy="787400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4357,6 +6877,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA514C57-67A4-3042-A11C-85DCA8069B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="6802"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6045200" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4656,8 +7230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F60EA56-EE42-AF4C-991D-8BFFBC21B2F5}">
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4702,7 +7276,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4730,11 +7304,11 @@
         <v>27</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="42">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4744,7 +7318,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>29</v>
@@ -4753,12 +7327,12 @@
         <v>19</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4777,12 +7351,12 @@
         <v>21</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -4799,12 +7373,12 @@
         <v>22</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -4826,7 +7400,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="42">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -4848,7 +7422,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4859,7 +7433,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -4874,12 +7448,12 @@
         <v>41</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4898,7 +7472,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="84">
@@ -4909,10 +7483,10 @@
         <v>30</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="147">
@@ -4923,7 +7497,7 @@
         <v>32</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -4935,7 +7509,7 @@
         <v>31</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -4947,13 +7521,13 @@
         <v>35</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4980,7 +7554,7 @@
         <v>34</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="8:10" ht="21">
@@ -4991,7 +7565,7 @@
         <v>35</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="8:10">
@@ -4999,15 +7573,15 @@
         <v>23</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5026,15 +7600,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="84">
+    <row r="61" spans="1:10" ht="63">
       <c r="H61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>42</v>
+      <c r="I61" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21">
@@ -5045,7 +7619,7 @@
         <v>32</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5053,10 +7627,10 @@
         <v>23</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5070,6 +7644,1704 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA37F48D-2E50-4243-B704-9990C376E95A}">
+  <dimension ref="B2:M168"/>
+  <sheetViews>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" s="31" customFormat="1">
+      <c r="B2" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="31" customFormat="1">
+      <c r="B6" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="42" customFormat="1">
+      <c r="B15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="21">
+      <c r="B20" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="J33" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="31" customFormat="1">
+      <c r="B66" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="31" customFormat="1">
+      <c r="B122" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="58"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="55"/>
+      <c r="I138" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J138" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K138" s="66"/>
+      <c r="L138" s="66"/>
+      <c r="M138" s="67"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="32">
+        <v>2</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139" s="61"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H139" s="67"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="33"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H140" s="67"/>
+      <c r="I140" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J140" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="32">
+        <v>3</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D141" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E141" s="61"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H141" s="67"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="33"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H142" s="67"/>
+      <c r="I142" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J142" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="32">
+        <v>4</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E143" s="61"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H143" s="67"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="33"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="64"/>
+      <c r="G144" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H144" s="67"/>
+      <c r="I144" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J144" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="35"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H145" s="67"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="35"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H146" s="67"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="35"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="67"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C148" s="35"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H148" s="67"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="35"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H149" s="67"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="28"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="H150" s="67"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="28"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H151" s="67"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="H152" s="67"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
+      <c r="M152" s="29"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="49">
+        <v>5</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="61"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H153" s="67"/>
+      <c r="I153" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J153" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="50"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H154" s="67"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="49">
+        <v>6</v>
+      </c>
+      <c r="C155" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D155" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E155" s="61"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H155" s="67"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="50"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="62"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="64"/>
+      <c r="G156" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H156" s="67"/>
+      <c r="I156" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="49">
+        <v>7</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D157" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E157" s="61"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H157" s="67"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="50"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="64"/>
+      <c r="G158" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H158" s="67"/>
+      <c r="I158" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J158" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="51">
+        <v>8</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E159" s="61"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H159" s="67"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="50"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="62"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160" s="67"/>
+      <c r="I160" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J160" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" s="35"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="H161" s="67"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162" s="35"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" s="67"/>
+      <c r="J162" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+      <c r="M162" s="29"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C163" s="35"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H163" s="67"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" s="35"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="67"/>
+      <c r="G164" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H164" s="67"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" s="35"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H165" s="67"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" s="35"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H166" s="67"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167" s="35"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="H167" s="67"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="35">
+        <v>9</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="67"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
+      <c r="M168" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="129">
+    <mergeCell ref="J163:M163"/>
+    <mergeCell ref="J164:M164"/>
+    <mergeCell ref="J165:M165"/>
+    <mergeCell ref="J166:M166"/>
+    <mergeCell ref="J167:M167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="J168:M168"/>
+    <mergeCell ref="J157:M157"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="J159:M159"/>
+    <mergeCell ref="J160:M160"/>
+    <mergeCell ref="J161:M161"/>
+    <mergeCell ref="J162:M162"/>
+    <mergeCell ref="J151:M151"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="J154:M154"/>
+    <mergeCell ref="J155:M155"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="J145:M145"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="J147:M147"/>
+    <mergeCell ref="J148:M148"/>
+    <mergeCell ref="J149:M149"/>
+    <mergeCell ref="J150:M150"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="J138:M138"/>
+    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="J141:M141"/>
+    <mergeCell ref="J142:M142"/>
+    <mergeCell ref="J143:M143"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D155:F156"/>
+    <mergeCell ref="D157:F158"/>
+    <mergeCell ref="D159:F160"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D139:F140"/>
+    <mergeCell ref="D141:F142"/>
+    <mergeCell ref="D143:F144"/>
+    <mergeCell ref="D153:F154"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F10:I10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C479B9E-3BC7-0945-8256-A0BE975704B8}">
   <dimension ref="C3:D10"/>
   <sheetViews>
@@ -5081,12 +9353,12 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -5097,12 +9369,12 @@
     </row>
     <row r="8" spans="3:4">
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5112,77 +9384,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76271F4D-98F0-1144-B5E1-7572383AF2FB}">
   <dimension ref="B3:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="D18" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="D19" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="D20" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5191,67 +9463,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB901BB-4195-8441-9482-AE8D3CB02237}">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="22"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:4">
       <c r="B17" s="23"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:4">
       <c r="B18" s="24"/>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>85</v>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="30">
+        <v>10</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="30">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807C43D-B4BF-ED43-B2B0-E7C3279EF927}">
+  <dimension ref="I2:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="9" max="10" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:10">
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10">
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design_feature_follow.xlsx
+++ b/design_feature_follow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/git/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD14AD-36E1-5F42-86FB-0AA960537B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E919F24-D1DE-D543-AC25-833F2D92ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27460" windowHeight="16940" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
   </bookViews>
@@ -344,16 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面:フォロワー管理</t>
-    <rPh sb="0" eb="2">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不明点</t>
     <rPh sb="0" eb="3">
       <t>フメイ</t>
@@ -2591,6 +2581,16 @@
     </rPh>
     <rPh sb="11" eb="15">
       <t>ショウニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面:フォロー管理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2931,7 +2931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3019,9 +3019,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3049,35 +3046,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3085,22 +3058,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3112,32 +3109,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7276,7 +7264,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7304,11 +7292,11 @@
         <v>27</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="42">
-      <c r="A9" s="29"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -7318,7 +7306,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>29</v>
@@ -7327,12 +7315,12 @@
         <v>19</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="29"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7351,12 +7339,12 @@
         <v>21</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="29"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -7373,12 +7361,12 @@
         <v>22</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="29"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -7400,7 +7388,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="42">
-      <c r="A13" s="29"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -7422,7 +7410,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7433,7 +7421,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -7448,7 +7436,7 @@
         <v>41</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
@@ -7472,7 +7460,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="84">
@@ -7483,10 +7471,10 @@
         <v>30</v>
       </c>
       <c r="J21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="147">
@@ -7497,7 +7485,7 @@
         <v>32</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -7509,7 +7497,7 @@
         <v>31</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -7521,7 +7509,7 @@
         <v>35</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -7554,7 +7542,7 @@
         <v>34</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="8:10" ht="21">
@@ -7573,15 +7561,15 @@
         <v>23</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7605,10 +7593,10 @@
         <v>29</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21">
@@ -7619,7 +7607,7 @@
         <v>32</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -7627,10 +7615,10 @@
         <v>23</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7660,24 +7648,24 @@
     <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="31" customFormat="1">
-      <c r="B2" s="31" t="s">
-        <v>97</v>
+    <row r="2" spans="2:10" s="30" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="31" customFormat="1">
-      <c r="B6" s="31" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="30" customFormat="1">
+      <c r="B6" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -7688,149 +7676,149 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="43" t="s">
+      <c r="F14" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="42" customFormat="1">
-      <c r="B15" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="54" t="s">
-        <v>168</v>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="43" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="53" t="s">
-        <v>166</v>
+      <c r="B17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -7841,17 +7829,17 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
@@ -7861,92 +7849,92 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="F19" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:10" ht="21">
-      <c r="B20" s="46" t="s">
-        <v>146</v>
+      <c r="B20" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="54" t="s">
-        <v>169</v>
+      <c r="F20" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="F21" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="F22" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="F23" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3" t="s">
@@ -7954,17 +7942,17 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="F24" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3" t="s">
@@ -7972,21 +7960,21 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="F25" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -7997,112 +7985,112 @@
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="44" t="s">
+      <c r="F32" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="54" t="s">
-        <v>159</v>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="43" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="J33" s="54" t="s">
-        <v>159</v>
+      <c r="J33" s="43" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -8113,149 +8101,149 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="43" t="s">
+      <c r="F40" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="54" t="s">
-        <v>159</v>
+      <c r="F41" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="43" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -8266,149 +8254,149 @@
         <v>3</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="43" t="s">
+      <c r="F49" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="54" t="s">
-        <v>159</v>
+      <c r="F50" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="43" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="53" t="s">
-        <v>185</v>
+      <c r="B52" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -8419,17 +8407,17 @@
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="3" t="s">
@@ -8439,17 +8427,17 @@
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
+      <c r="F54" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="3" t="s">
@@ -8458,833 +8446,778 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="54" t="s">
+      <c r="B61" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="30" customFormat="1">
+      <c r="B66" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="30" customFormat="1">
+      <c r="B122" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="57"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="60"/>
+      <c r="I138" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K138" s="48"/>
+      <c r="L138" s="48"/>
+      <c r="M138" s="47"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="31">
+        <v>2</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D139" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" s="50"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H139" s="47"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="K139" s="44"/>
+      <c r="L139" s="44"/>
+      <c r="M139" s="44"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="32"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H140" s="47"/>
+      <c r="I140" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J140" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K140" s="44"/>
+      <c r="L140" s="44"/>
+      <c r="M140" s="44"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="31">
+        <v>3</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D141" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E141" s="50"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H141" s="47"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K141" s="44"/>
+      <c r="L141" s="44"/>
+      <c r="M141" s="44"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="32"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H142" s="47"/>
+      <c r="I142" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J142" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K142" s="44"/>
+      <c r="L142" s="44"/>
+      <c r="M142" s="44"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="31">
+        <v>4</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D143" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" s="50"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H143" s="47"/>
+      <c r="I143" s="34"/>
+      <c r="J143" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K143" s="44"/>
+      <c r="L143" s="44"/>
+      <c r="M143" s="44"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="32"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H144" s="47"/>
+      <c r="I144" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J144" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K144" s="44"/>
+      <c r="L144" s="44"/>
+      <c r="M144" s="44"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C145" s="34"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H145" s="47"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="K145" s="44"/>
+      <c r="L145" s="44"/>
+      <c r="M145" s="44"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="34"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H146" s="47"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K146" s="44"/>
+      <c r="L146" s="44"/>
+      <c r="M146" s="44"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="47"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="K147" s="44"/>
+      <c r="L147" s="44"/>
+      <c r="M147" s="44"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C148" s="34"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H148" s="47"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K148" s="44"/>
+      <c r="L148" s="44"/>
+      <c r="M148" s="44"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C149" s="34"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H149" s="47"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K149" s="44"/>
+      <c r="L149" s="44"/>
+      <c r="M149" s="44"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="28"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="H150" s="47"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K150" s="44"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="44"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="28"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H151" s="47"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="K151" s="44"/>
+      <c r="L151" s="44"/>
+      <c r="M151" s="44"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H152" s="47"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="K152" s="44"/>
+      <c r="L152" s="44"/>
+      <c r="M152" s="44"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="40">
+        <v>5</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D153" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153" s="50"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H153" s="47"/>
+      <c r="I153" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J153" s="44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" s="31" customFormat="1">
-      <c r="B66" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" s="31" customFormat="1">
-      <c r="B122" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13">
-      <c r="B138" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D138" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="58"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H138" s="55"/>
-      <c r="I138" s="35" t="s">
+      <c r="K153" s="44"/>
+      <c r="L153" s="44"/>
+      <c r="M153" s="44"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="41"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H154" s="47"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K154" s="44"/>
+      <c r="L154" s="44"/>
+      <c r="M154" s="44"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="40">
+        <v>6</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D155" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="50"/>
+      <c r="F155" s="51"/>
+      <c r="G155" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H155" s="47"/>
+      <c r="I155" s="34"/>
+      <c r="J155" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K155" s="44"/>
+      <c r="L155" s="44"/>
+      <c r="M155" s="44"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="41"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H156" s="47"/>
+      <c r="I156" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J156" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="K156" s="44"/>
+      <c r="L156" s="44"/>
+      <c r="M156" s="44"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="40">
+        <v>7</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E157" s="50"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H157" s="47"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K157" s="44"/>
+      <c r="L157" s="44"/>
+      <c r="M157" s="44"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="41"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H158" s="47"/>
+      <c r="I158" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J158" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="K158" s="44"/>
+      <c r="L158" s="44"/>
+      <c r="M158" s="44"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="40">
+        <v>8</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E159" s="50"/>
+      <c r="F159" s="51"/>
+      <c r="G159" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H159" s="47"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K159" s="44"/>
+      <c r="L159" s="44"/>
+      <c r="M159" s="44"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="41"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="53"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H160" s="47"/>
+      <c r="I160" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J160" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="K160" s="44"/>
+      <c r="L160" s="44"/>
+      <c r="M160" s="44"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="J138" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
-      <c r="M138" s="67"/>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139" s="32">
-        <v>2</v>
-      </c>
-      <c r="C139" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D139" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="E139" s="61"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="65" t="s">
+      <c r="C161" s="34"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H161" s="47"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="K161" s="44"/>
+      <c r="L161" s="44"/>
+      <c r="M161" s="44"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="34"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" s="47"/>
+      <c r="J162" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K162" s="44"/>
+      <c r="L162" s="44"/>
+      <c r="M162" s="44"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163" s="34"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H163" s="47"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="H139" s="67"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-    </row>
-    <row r="140" spans="2:13">
-      <c r="B140" s="33"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H140" s="67"/>
-      <c r="I140" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="J140" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-    </row>
-    <row r="141" spans="2:13">
-      <c r="B141" s="32">
-        <v>3</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E141" s="61"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H141" s="67"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-    </row>
-    <row r="142" spans="2:13">
-      <c r="B142" s="33"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H142" s="67"/>
-      <c r="I142" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J142" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-    </row>
-    <row r="143" spans="2:13">
-      <c r="B143" s="32">
-        <v>4</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D143" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="61"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="H143" s="67"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-    </row>
-    <row r="144" spans="2:13">
-      <c r="B144" s="33"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H144" s="67"/>
-      <c r="I144" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J144" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="B145" s="35" t="s">
+      <c r="K163" s="44"/>
+      <c r="L163" s="44"/>
+      <c r="M163" s="44"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" s="34"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C145" s="35"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H145" s="67"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29"/>
-    </row>
-    <row r="146" spans="2:13">
-      <c r="B146" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H146" s="67"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="29" t="s">
+      <c r="H164" s="47"/>
+      <c r="I164" s="34"/>
+      <c r="J164" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K164" s="44"/>
+      <c r="L164" s="44"/>
+      <c r="M164" s="44"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" s="34"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-    </row>
-    <row r="147" spans="2:13">
-      <c r="B147" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C147" s="35"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H147" s="67"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="65" t="s">
+      <c r="H165" s="47"/>
+      <c r="I165" s="34"/>
+      <c r="J165" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K165" s="44"/>
+      <c r="L165" s="44"/>
+      <c r="M165" s="44"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="34"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H148" s="67"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="H149" s="67"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29"/>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="28"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="65" t="s">
+      <c r="H166" s="47"/>
+      <c r="I166" s="34"/>
+      <c r="J166" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="H150" s="67"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29"/>
-    </row>
-    <row r="151" spans="2:13">
-      <c r="B151" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="H151" s="67"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29"/>
-    </row>
-    <row r="152" spans="2:13">
-      <c r="B152" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="H152" s="67"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29"/>
-    </row>
-    <row r="153" spans="2:13">
-      <c r="B153" s="49">
-        <v>5</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E153" s="61"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H153" s="67"/>
-      <c r="I153" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J153" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-    </row>
-    <row r="154" spans="2:13">
-      <c r="B154" s="50"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="H154" s="67"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-    </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="49">
-        <v>6</v>
-      </c>
-      <c r="C155" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D155" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E155" s="61"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="H155" s="67"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-    </row>
-    <row r="156" spans="2:13">
-      <c r="B156" s="50"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="62"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H156" s="67"/>
-      <c r="I156" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="J156" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157" s="49">
-        <v>7</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D157" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E157" s="61"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H157" s="67"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-    </row>
-    <row r="158" spans="2:13">
-      <c r="B158" s="50"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="64"/>
-      <c r="G158" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H158" s="67"/>
-      <c r="I158" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J158" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="51">
-        <v>8</v>
-      </c>
-      <c r="C159" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D159" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E159" s="61"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="H159" s="67"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-    </row>
-    <row r="160" spans="2:13">
-      <c r="B160" s="50"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="H160" s="67"/>
-      <c r="I160" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J160" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-    </row>
-    <row r="161" spans="2:13">
-      <c r="B161" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C161" s="35"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="H161" s="67"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C162" s="35"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H162" s="67"/>
-      <c r="J162" s="29" t="s">
+      <c r="K166" s="44"/>
+      <c r="L166" s="44"/>
+      <c r="M166" s="44"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="34"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="29"/>
-    </row>
-    <row r="163" spans="2:13">
-      <c r="B163" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C163" s="35"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="H163" s="67"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-    </row>
-    <row r="164" spans="2:13">
-      <c r="B164" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C164" s="35"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="67"/>
-      <c r="G164" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H164" s="67"/>
-      <c r="I164" s="35"/>
-      <c r="J164" s="29" t="s">
+      <c r="H167" s="47"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K167" s="44"/>
+      <c r="L167" s="44"/>
+      <c r="M167" s="44"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="34">
+        <v>9</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-    </row>
-    <row r="165" spans="2:13">
-      <c r="B165" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H165" s="67"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-    </row>
-    <row r="166" spans="2:13">
-      <c r="B166" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C166" s="35"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="H166" s="67"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C167" s="35"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="67"/>
-      <c r="G167" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="H167" s="67"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="29"/>
-    </row>
-    <row r="168" spans="2:13">
-      <c r="B168" s="35">
-        <v>9</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="65"/>
-      <c r="H168" s="67"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="47"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="44"/>
+      <c r="M168" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="J163:M163"/>
-    <mergeCell ref="J164:M164"/>
-    <mergeCell ref="J165:M165"/>
-    <mergeCell ref="J166:M166"/>
-    <mergeCell ref="J167:M167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="J168:M168"/>
-    <mergeCell ref="J157:M157"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="J159:M159"/>
-    <mergeCell ref="J160:M160"/>
-    <mergeCell ref="J161:M161"/>
-    <mergeCell ref="J162:M162"/>
-    <mergeCell ref="J151:M151"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="J154:M154"/>
-    <mergeCell ref="J155:M155"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="J145:M145"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="J147:M147"/>
-    <mergeCell ref="J148:M148"/>
-    <mergeCell ref="J149:M149"/>
-    <mergeCell ref="J150:M150"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="J138:M138"/>
-    <mergeCell ref="J139:M139"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="J141:M141"/>
-    <mergeCell ref="J142:M142"/>
-    <mergeCell ref="J143:M143"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D155:F156"/>
-    <mergeCell ref="D157:F158"/>
-    <mergeCell ref="D159:F160"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D139:F140"/>
-    <mergeCell ref="D141:F142"/>
-    <mergeCell ref="D143:F144"/>
-    <mergeCell ref="D153:F154"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="D147:F147"/>
     <mergeCell ref="D148:F148"/>
     <mergeCell ref="D149:F149"/>
@@ -9309,31 +9242,86 @@
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D155:F156"/>
+    <mergeCell ref="D157:F158"/>
+    <mergeCell ref="D159:F160"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D139:F140"/>
+    <mergeCell ref="D141:F142"/>
+    <mergeCell ref="D143:F144"/>
+    <mergeCell ref="D153:F154"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="J138:M138"/>
+    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="J141:M141"/>
+    <mergeCell ref="J142:M142"/>
+    <mergeCell ref="J143:M143"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="J151:M151"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="J154:M154"/>
+    <mergeCell ref="J155:M155"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="J145:M145"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="J147:M147"/>
+    <mergeCell ref="J148:M148"/>
+    <mergeCell ref="J149:M149"/>
+    <mergeCell ref="J150:M150"/>
+    <mergeCell ref="J163:M163"/>
+    <mergeCell ref="J164:M164"/>
+    <mergeCell ref="J165:M165"/>
+    <mergeCell ref="J166:M166"/>
+    <mergeCell ref="J167:M167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="J168:M168"/>
+    <mergeCell ref="J157:M157"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="J159:M159"/>
+    <mergeCell ref="J160:M160"/>
+    <mergeCell ref="J161:M161"/>
+    <mergeCell ref="J162:M162"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="D167:F167"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9353,12 +9341,12 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -9369,12 +9357,12 @@
     </row>
     <row r="8" spans="3:4">
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -9396,65 +9384,65 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="D18" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="D19" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="D20" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9478,37 +9466,37 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -9522,35 +9510,35 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="29">
+        <v>10</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="30">
-        <v>10</v>
-      </c>
-      <c r="C20" s="30" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="29">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="30">
-        <v>11</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>91</v>
+      <c r="D21" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -9574,18 +9562,18 @@
   <sheetData>
     <row r="2" spans="9:10">
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/design_feature_follow.xlsx
+++ b/design_feature_follow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/git/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E919F24-D1DE-D543-AC25-833F2D92ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D0EFE6-4852-A24B-8FE3-CD7AD647495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27460" windowHeight="16940" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27780" windowHeight="17500" activeTab="1" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
   </bookViews>
   <sheets>
     <sheet name="フォロー機能" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
   <si>
     <t>1. 社員同士のフォロー機能・フォローした社員の日報を一覧表示する機能</t>
     <phoneticPr fontId="1"/>
@@ -1840,13 +1841,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一般</t>
-    <rPh sb="0" eb="2">
-      <t>イッパn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメn</t>
@@ -1869,34 +1863,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>index()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employees/index.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employees/show.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加した権限名を表示できるように修正</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1910,22 +1877,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加した権限名を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員編集</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウ</t>
@@ -1936,56 +1887,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加した権限名を選択可能にする</t>
-    <rPh sb="0" eb="1">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employees/_form.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加した権限名を選択できるように修正</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>show()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限リストをjspに渡す</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワタス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2003,19 +1909,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加した権限名を選択可能にする</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employees/new.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2039,19 +1932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>権限リストを取得するJPQLを追加する</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EmployeeConverter.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2070,59 +1950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従業員一覧</t>
-    <rPh sb="0" eb="5">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署の列を追加し、所属部署名を表示する</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="16">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員詳細</t>
-    <rPh sb="0" eb="4">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署名を表示する</t>
-    <rPh sb="0" eb="5">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署を選択可能にする</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>営業部</t>
     <rPh sb="0" eb="3">
       <t>エイギョウ</t>
@@ -2249,13 +2076,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>role_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2267,20 +2087,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>admin_flagを削除し、role_idを追加する</t>
-    <rPh sb="11" eb="13">
-      <t>サクジヨ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Role.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -2288,86 +2094,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属部署をリクエストスコープに格納するように修正</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署カラムを追加し、所属部署名を表示するように修正</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>b</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加した所属部署名を表示できるように修正</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署をjspに渡す</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワタス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署を選択できるように修正</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部署名</t>
     <rPh sb="0" eb="1">
       <t>ブセィオ</t>
@@ -2383,82 +2109,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin_flag削除し、role_idを追加する</t>
-    <rPh sb="10" eb="12">
-      <t>サクジヨ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル：departments</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Department.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加する</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限関連項目を追加する</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲn</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カンレn</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署関連項目を追加</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カンレn</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EmployeeService.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部署idを追加</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2507,13 +2162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認状況</t>
-    <rPh sb="0" eb="4">
-      <t>ショウニn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dep_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2553,13 +2201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>役職</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員id</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウ</t>
@@ -2591,6 +2232,311 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeline()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index()</t>
+  </si>
+  <si>
+    <t>reports/timeline.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reports/index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況を追加</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_flagを修正する案について</t>
+    <rPh sb="11" eb="13">
+      <t>シュウセイス</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アンニツイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括操作（一括フォロー、一括アンフォロー）、</t>
+    <rPh sb="0" eb="2">
+      <t>イッカテゥ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッカテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッカテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ(0:一般 1:管理者)</t>
+    <rPh sb="0" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位(0:一般社員 1:課長 2:部長)</t>
+    <rPh sb="0" eb="2">
+      <t>ショクイヘゥ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況 （0:未承認 1:課長承認済 2:部長承認済）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミショウニn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を選択可能にする</t>
+    <rPh sb="0" eb="1">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を選択可能にする</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を表示できるように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位をjspに渡す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>b</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を選択できるように修正</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位をjspに渡す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブセィオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワタス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を追加する
+職位を取得するJPQLを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位関連項目を追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ブセィオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を追加する</t>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位を表示できるように修正</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2599,7 +2545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2726,6 +2672,24 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2931,7 +2895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3025,15 +2989,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3043,22 +2998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -3077,24 +3017,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3121,11 +3043,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4911,14 +4893,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>220606</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>220605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4961,13 +4943,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>86008</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5005,13 +4987,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5071,14 +5053,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>247541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5093,8 +5075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8445500" y="31165800"/>
-          <a:ext cx="5486400" cy="1739900"/>
+          <a:off x="8491995" y="31947387"/>
+          <a:ext cx="5494580" cy="2665493"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5126,7 +5108,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザの権限＝管理者の場合</a:t>
+            <a:t>・ログインユーザの職位＝一般の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5134,7 +5116,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　承認状況が未承認の場合は承認欄に承認ボタンを表示する</a:t>
+            <a:t>　承認列は表示しない</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5142,7 +5124,47 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザの権限＝一般の場合</a:t>
+            <a:t>・ログインユーザの職位＝課長の場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認状況が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未承認の場合は承認列に承認ボタンを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認状況が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以外の場合は承認列に何も表示しない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ログインユーザの職位＝部長の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5158,7 +5180,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザがそれ以外の場合</a:t>
+            <a:t>　承認状況が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>課長承認済みの場合は承認列に承認ボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5166,15 +5196,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　同じ部署の日報で承認状況が未承認の場合は承認欄に承認ボタンを表示する</a:t>
+            <a:t>　承認状況が</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　（承認ボタン押下後はフラッシュメッセージを表示する）</a:t>
+            <a:t>以外の場合は承認列に何も表示しない</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5190,13 +5220,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>98708</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5234,13 +5264,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5300,13 +5330,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5363,13 +5393,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>103929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5385,8 +5415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="635000" y="20690629"/>
-          <a:ext cx="4775200" cy="4277571"/>
+          <a:off x="638444" y="21295709"/>
+          <a:ext cx="4802107" cy="4350757"/>
           <a:chOff x="533400" y="21528829"/>
           <a:chExt cx="4775200" cy="4277571"/>
         </a:xfrm>
@@ -5522,7 +5552,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>所属部署を表示する</a:t>
+              <a:t>職位を選択可能にする</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5580,7 +5610,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>所属部署</a:t>
+              <a:t>職位</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5634,11 +5664,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一般社員</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5699,317 +5732,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="52" name="グループ化 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD1ACB2-ECE5-DEE8-6B38-611672CD34E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="596900" y="17119600"/>
-          <a:ext cx="7010400" cy="3022600"/>
-          <a:chOff x="596900" y="14833600"/>
-          <a:chExt cx="7010400" cy="3022600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="図 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10323A88-784B-6764-DDA8-C78DCC88EC9E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="6802"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="596900" y="14833600"/>
-            <a:ext cx="6045200" cy="2933700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="図 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4901C48-62BC-1A24-6F41-0D439EA59222}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="838200" y="17513300"/>
-            <a:ext cx="5778500" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBB3C3A-0BAD-F349-8CE2-D1891FEF1D27}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="762000" y="17513300"/>
-            <a:ext cx="5918200" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="四角形吹き出し 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780C7A1D-3C84-D240-B82A-13270FF15865}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6083300" y="16776700"/>
-            <a:ext cx="1524000" cy="647700"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>所属部署を表示する</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="正方形/長方形 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEB4E79-4370-BB40-A5F9-EE26AB0DE83E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3302000" y="16548100"/>
-            <a:ext cx="723900" cy="317500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="四角形吹き出し 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D39A11-73EC-1945-9A74-FD5DAC136177}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3898900" y="15798800"/>
-            <a:ext cx="1689100" cy="622300"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -41886"/>
-              <a:gd name="adj2" fmla="val 81855"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>追加した権限も表示する</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123592</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6025,8 +5755,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="622300" y="25692100"/>
-          <a:ext cx="6498992" cy="4457700"/>
+          <a:off x="625744" y="26383281"/>
+          <a:ext cx="6536662" cy="4530887"/>
           <a:chOff x="622300" y="23952200"/>
           <a:chExt cx="6498992" cy="4457700"/>
         </a:xfrm>
@@ -6096,7 +5826,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6116,108 +5846,6 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1705D44C-3776-1E4F-A1F2-734F8677EFD3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="800100" y="27038300"/>
-            <a:ext cx="774700" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="四角形吹き出し 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7501B4E4-ECD5-9B4D-A03C-29E260EA4257}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1651000" y="26339800"/>
-            <a:ext cx="1993900" cy="520700"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -60227"/>
-              <a:gd name="adj2" fmla="val 82012"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>追加した権限も表示する</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="33" name="四角形吹き出し 32">
@@ -6264,7 +5892,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>所属部署を表示する</a:t>
+              <a:t>職位を選択可能にする</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6322,7 +5950,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>所属部署</a:t>
+              <a:t>職位</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6376,11 +6004,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一般社員</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6399,6 +6030,210 @@
           <a:xfrm>
             <a:off x="749300" y="27571700"/>
             <a:ext cx="1549400" cy="787400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597096</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>250625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19BC64F-12FB-5AD6-6BB9-A53D7D609BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="600344" y="17664407"/>
+          <a:ext cx="6077684" cy="3003082"/>
+          <a:chOff x="600344" y="17664407"/>
+          <a:chExt cx="6077684" cy="3003082"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10323A88-784B-6764-DDA8-C78DCC88EC9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="6802"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="600344" y="17664407"/>
+            <a:ext cx="6077684" cy="2983842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="四角形吹き出し 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D39A11-73EC-1945-9A74-FD5DAC136177}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4651952" y="19507122"/>
+            <a:ext cx="1698176" cy="632936"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -77378"/>
+              <a:gd name="adj2" fmla="val 80155"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>職位を追加する</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BE70C8-4BB6-219D-258D-04BF0A3E8BE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="861017" y="20373813"/>
+            <a:ext cx="5040053" cy="236781"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEB4E79-4370-BB40-A5F9-EE26AB0DE83E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3395318" y="20344562"/>
+            <a:ext cx="727790" cy="322927"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7218,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F60EA56-EE42-AF4C-991D-8BFFBC21B2F5}">
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7264,7 +7099,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7296,7 +7131,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="42">
-      <c r="A9" s="44"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -7320,7 +7155,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="44"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7344,7 +7179,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="44"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -7366,7 +7201,7 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="44"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -7388,7 +7223,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="42">
-      <c r="A13" s="44"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -7569,7 +7404,7 @@
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7633,11 +7468,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA37F48D-2E50-4243-B704-9990C376E95A}">
-  <dimension ref="B2:M168"/>
+  <dimension ref="B2:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -7660,165 +7493,160 @@
     </row>
     <row r="6" spans="2:10" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
+      <c r="B8" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="B11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F11" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="38" t="s">
+      <c r="B12" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F12" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F13" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F14" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="43" t="s">
-        <v>167</v>
-      </c>
+      <c r="F15" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -7829,17 +7657,17 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
@@ -7849,1357 +7677,1111 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="F19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:10" ht="21">
-      <c r="B20" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="B20" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="43" t="s">
-        <v>168</v>
-      </c>
+      <c r="F20" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="F22" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="F23" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="F24" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>170</v>
-      </c>
+      <c r="F25" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E31" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F36" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="38" t="s">
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C37" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D37" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="C48" s="63"/>
+      <c r="D48" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38" t="s">
+      <c r="F48" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="J33" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F54" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="3" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="3" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="3" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="3" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="55" t="s">
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" s="30" customFormat="1">
+      <c r="B67" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" s="30" customFormat="1">
+      <c r="B123" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="43"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="46"/>
+      <c r="I139" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="J139" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K139" s="40"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="39"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="55">
+        <v>1</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="50"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="55">
+        <v>2</v>
+      </c>
+      <c r="C141" s="32"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J141" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="36"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="55">
+        <v>3</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="50"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="55">
+        <v>4</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J143" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="36"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="55">
+        <v>5</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" s="30" customFormat="1">
-      <c r="B66" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" s="30" customFormat="1">
-      <c r="B122" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13">
-      <c r="B138" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D138" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="57"/>
-      <c r="F138" s="58"/>
-      <c r="G138" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H138" s="60"/>
-      <c r="I138" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J138" s="46" t="s">
+      <c r="E144" s="50"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="36"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="55">
+        <v>6</v>
+      </c>
+      <c r="C145" s="32"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="K138" s="48"/>
-      <c r="L138" s="48"/>
-      <c r="M138" s="47"/>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139" s="31">
-        <v>2</v>
-      </c>
-      <c r="C139" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D139" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="E139" s="50"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H139" s="47"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="K139" s="44"/>
-      <c r="L139" s="44"/>
-      <c r="M139" s="44"/>
-    </row>
-    <row r="140" spans="2:13">
-      <c r="B140" s="32"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H140" s="47"/>
-      <c r="I140" s="34" t="s">
+      <c r="H145" s="39"/>
+      <c r="I145" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J145" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+    </row>
+    <row r="146" spans="2:13" ht="40" customHeight="1">
+      <c r="B146" s="55">
+        <v>7</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="38"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J140" s="44" t="s">
+      <c r="H146" s="39"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="36"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="55">
+        <v>8</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="38"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="36"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="55">
+        <v>9</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="38"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="K140" s="44"/>
-      <c r="L140" s="44"/>
-      <c r="M140" s="44"/>
-    </row>
-    <row r="141" spans="2:13">
-      <c r="B141" s="31">
-        <v>3</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D141" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E141" s="50"/>
-      <c r="F141" s="51"/>
-      <c r="G141" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H141" s="47"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="44" t="s">
+      <c r="H148" s="39"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="36"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="55">
+        <v>10</v>
+      </c>
+      <c r="C149" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="K141" s="44"/>
-      <c r="L141" s="44"/>
-      <c r="M141" s="44"/>
-    </row>
-    <row r="142" spans="2:13">
-      <c r="B142" s="32"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H142" s="47"/>
-      <c r="I142" s="34" t="s">
+      <c r="D149" s="38"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J142" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="K142" s="44"/>
-      <c r="L142" s="44"/>
-      <c r="M142" s="44"/>
-    </row>
-    <row r="143" spans="2:13">
-      <c r="B143" s="31">
-        <v>4</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D143" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E143" s="50"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H143" s="47"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="44" t="s">
+      <c r="H149" s="39"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="36"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="55">
+        <v>11</v>
+      </c>
+      <c r="C150" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="K143" s="44"/>
-      <c r="L143" s="44"/>
-      <c r="M143" s="44"/>
-    </row>
-    <row r="144" spans="2:13">
-      <c r="B144" s="32"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H144" s="47"/>
-      <c r="I144" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J144" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="K144" s="44"/>
-      <c r="L144" s="44"/>
-      <c r="M144" s="44"/>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="B145" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H145" s="47"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="K145" s="44"/>
-      <c r="L145" s="44"/>
-      <c r="M145" s="44"/>
-    </row>
-    <row r="146" spans="2:13">
-      <c r="B146" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H146" s="47"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K146" s="44"/>
-      <c r="L146" s="44"/>
-      <c r="M146" s="44"/>
-    </row>
-    <row r="147" spans="2:13">
-      <c r="B147" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="46"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H147" s="47"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="K147" s="44"/>
-      <c r="L147" s="44"/>
-      <c r="M147" s="44"/>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C148" s="34"/>
-      <c r="D148" s="46"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H148" s="47"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="K148" s="44"/>
-      <c r="L148" s="44"/>
-      <c r="M148" s="44"/>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="47"/>
-      <c r="G149" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H149" s="47"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="K149" s="44"/>
-      <c r="L149" s="44"/>
-      <c r="M149" s="44"/>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150" s="28"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H150" s="47"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H150" s="39"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="K150" s="44"/>
-      <c r="L150" s="44"/>
-      <c r="M150" s="44"/>
+      <c r="J150" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K150" s="36"/>
+      <c r="L150" s="36"/>
+      <c r="M150" s="36"/>
     </row>
     <row r="151" spans="2:13">
-      <c r="B151" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="46"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="46" t="s">
+      <c r="B151" s="55">
+        <v>12</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="38"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H151" s="47"/>
+      <c r="H151" s="39"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="K151" s="44"/>
-      <c r="L151" s="44"/>
-      <c r="M151" s="44"/>
+      <c r="J151" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="K151" s="36"/>
+      <c r="L151" s="36"/>
+      <c r="M151" s="36"/>
     </row>
     <row r="152" spans="2:13">
-      <c r="B152" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H152" s="47"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="K152" s="44"/>
-      <c r="L152" s="44"/>
-      <c r="M152" s="44"/>
+      <c r="B152" s="55">
+        <v>13</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J152" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K152" s="36"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="36"/>
     </row>
     <row r="153" spans="2:13">
-      <c r="B153" s="40">
-        <v>5</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D153" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E153" s="50"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H153" s="47"/>
-      <c r="I153" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="J153" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="K153" s="44"/>
-      <c r="L153" s="44"/>
-      <c r="M153" s="44"/>
+      <c r="B153" s="55">
+        <v>14</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K153" s="36"/>
+      <c r="L153" s="36"/>
+      <c r="M153" s="36"/>
     </row>
     <row r="154" spans="2:13">
-      <c r="B154" s="41"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H154" s="47"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K154" s="44"/>
-      <c r="L154" s="44"/>
-      <c r="M154" s="44"/>
+      <c r="B154" s="55">
+        <v>15</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J154" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K154" s="36"/>
+      <c r="L154" s="36"/>
+      <c r="M154" s="36"/>
     </row>
     <row r="155" spans="2:13">
-      <c r="B155" s="40">
-        <v>6</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D155" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E155" s="50"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H155" s="47"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="K155" s="44"/>
-      <c r="L155" s="44"/>
-      <c r="M155" s="44"/>
-    </row>
-    <row r="156" spans="2:13">
-      <c r="B156" s="41"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H156" s="47"/>
-      <c r="I156" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J156" s="44" t="s">
+      <c r="B155" s="55">
+        <v>16</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K156" s="44"/>
-      <c r="L156" s="44"/>
-      <c r="M156" s="44"/>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157" s="40">
-        <v>7</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D157" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E157" s="50"/>
-      <c r="F157" s="51"/>
-      <c r="G157" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H157" s="47"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="K157" s="44"/>
-      <c r="L157" s="44"/>
-      <c r="M157" s="44"/>
-    </row>
-    <row r="158" spans="2:13">
-      <c r="B158" s="41"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H158" s="47"/>
-      <c r="I158" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="J158" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="K158" s="44"/>
-      <c r="L158" s="44"/>
-      <c r="M158" s="44"/>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="40">
-        <v>8</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D159" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E159" s="50"/>
-      <c r="F159" s="51"/>
-      <c r="G159" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H159" s="47"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="K159" s="44"/>
-      <c r="L159" s="44"/>
-      <c r="M159" s="44"/>
-    </row>
-    <row r="160" spans="2:13">
-      <c r="B160" s="41"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="53"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H160" s="47"/>
-      <c r="I160" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J160" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="K160" s="44"/>
-      <c r="L160" s="44"/>
-      <c r="M160" s="44"/>
-    </row>
-    <row r="161" spans="2:13">
-      <c r="B161" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C161" s="34"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="H161" s="47"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="K161" s="44"/>
-      <c r="L161" s="44"/>
-      <c r="M161" s="44"/>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C162" s="34"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H162" s="47"/>
-      <c r="J162" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K162" s="44"/>
-      <c r="L162" s="44"/>
-      <c r="M162" s="44"/>
-    </row>
-    <row r="163" spans="2:13">
-      <c r="B163" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C163" s="34"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="47"/>
-      <c r="G163" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H163" s="47"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="K163" s="44"/>
-      <c r="L163" s="44"/>
-      <c r="M163" s="44"/>
-    </row>
-    <row r="164" spans="2:13">
-      <c r="B164" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C164" s="34"/>
-      <c r="D164" s="46"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H164" s="47"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="K164" s="44"/>
-      <c r="L164" s="44"/>
-      <c r="M164" s="44"/>
-    </row>
-    <row r="165" spans="2:13">
-      <c r="B165" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C165" s="34"/>
-      <c r="D165" s="46"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H165" s="47"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="K165" s="44"/>
-      <c r="L165" s="44"/>
-      <c r="M165" s="44"/>
-    </row>
-    <row r="166" spans="2:13">
-      <c r="B166" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H166" s="47"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="K166" s="44"/>
-      <c r="L166" s="44"/>
-      <c r="M166" s="44"/>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C167" s="34"/>
-      <c r="D167" s="46"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H167" s="47"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="K167" s="44"/>
-      <c r="L167" s="44"/>
-      <c r="M167" s="44"/>
-    </row>
-    <row r="168" spans="2:13">
-      <c r="B168" s="34">
-        <v>9</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D168" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="E168" s="45"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="46"/>
-      <c r="H168" s="47"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="44"/>
-      <c r="M168" s="44"/>
+      <c r="D155" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K155" s="36"/>
+      <c r="L155" s="36"/>
+      <c r="M155" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="92">
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="J153:M153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="J154:M154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="J155:M155"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F15:I15"/>
@@ -9207,121 +8789,76 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F39:I39"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F61:I61"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="D147:F147"/>
     <mergeCell ref="D148:F148"/>
     <mergeCell ref="D149:F149"/>
     <mergeCell ref="D150:F150"/>
-    <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="F38:I38"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F62:I62"/>
     <mergeCell ref="F57:I57"/>
     <mergeCell ref="F58:I58"/>
     <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F60:I60"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F36:I36"/>
     <mergeCell ref="G147:H147"/>
     <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G139:H139"/>
     <mergeCell ref="G140:H140"/>
     <mergeCell ref="G141:H141"/>
     <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D155:F156"/>
-    <mergeCell ref="D157:F158"/>
-    <mergeCell ref="D159:F160"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
     <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D139:F140"/>
-    <mergeCell ref="D141:F142"/>
-    <mergeCell ref="D143:F144"/>
-    <mergeCell ref="D153:F154"/>
-    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D140:F141"/>
+    <mergeCell ref="D142:F143"/>
+    <mergeCell ref="D144:F145"/>
     <mergeCell ref="D146:F146"/>
-    <mergeCell ref="J138:M138"/>
     <mergeCell ref="J139:M139"/>
     <mergeCell ref="J140:M140"/>
     <mergeCell ref="J141:M141"/>
     <mergeCell ref="J142:M142"/>
     <mergeCell ref="J143:M143"/>
     <mergeCell ref="J144:M144"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="J145:M145"/>
     <mergeCell ref="G149:H149"/>
     <mergeCell ref="G150:H150"/>
     <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G143:H143"/>
     <mergeCell ref="G144:H144"/>
     <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
     <mergeCell ref="J151:M151"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="J153:M153"/>
-    <mergeCell ref="J154:M154"/>
-    <mergeCell ref="J155:M155"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="J145:M145"/>
     <mergeCell ref="J146:M146"/>
     <mergeCell ref="J147:M147"/>
     <mergeCell ref="J148:M148"/>
     <mergeCell ref="J149:M149"/>
     <mergeCell ref="J150:M150"/>
-    <mergeCell ref="J163:M163"/>
-    <mergeCell ref="J164:M164"/>
-    <mergeCell ref="J165:M165"/>
-    <mergeCell ref="J166:M166"/>
-    <mergeCell ref="J167:M167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="J168:M168"/>
-    <mergeCell ref="J157:M157"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="J159:M159"/>
-    <mergeCell ref="J160:M160"/>
-    <mergeCell ref="J161:M161"/>
-    <mergeCell ref="J162:M162"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="J152:M152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9377,7 +8914,7 @@
   <dimension ref="B3:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9455,7 +8992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB901BB-4195-8441-9482-AE8D3CB02237}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -9552,7 +9089,7 @@
   <dimension ref="I2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9562,18 +9099,18 @@
   <sheetData>
     <row r="2" spans="9:10">
       <c r="I2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9581,4 +9118,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF25FAA-890F-3449-A1B0-C470BD898D43}">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design_feature_follow.xlsx
+++ b/design_feature_follow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/git/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D0EFE6-4852-A24B-8FE3-CD7AD647495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC376DA7-0541-7549-99DE-C9F88116F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="27780" windowHeight="17500" activeTab="1" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="189">
   <si>
     <t>1. 社員同士のフォロー機能・フォローした社員の日報を一覧表示する機能</t>
     <phoneticPr fontId="1"/>
@@ -2345,34 +2345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認状況 （0:未承認 1:課長承認済 2:部長承認済）</t>
-    <rPh sb="0" eb="4">
-      <t>ショウニn</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミショウニn</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カチョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウニn</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブチョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウニ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">ズミ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>職位を表示する</t>
     <rPh sb="0" eb="2">
       <t>ショク</t>
@@ -2536,6 +2508,56 @@
       <t>サクジヨ</t>
     </rPh>
     <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況 （0:未承認 1:課長承認済 2:部長承認済 9:差し戻し済）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミショウニn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サシモドシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況、承認・差し戻しボタンを追加</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サシモドシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4897,10 +4919,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1110281</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>220605</xdr:rowOff>
+      <xdr:rowOff>220606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4947,10 +4969,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>86008</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1043889</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5058,9 +5080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>247541</xdr:rowOff>
+      <xdr:colOff>516611</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>43051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5075,8 +5097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8491995" y="31947387"/>
-          <a:ext cx="5494580" cy="2665493"/>
+          <a:off x="8944029" y="31947387"/>
+          <a:ext cx="5973090" cy="2977613"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5140,7 +5162,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未承認の場合は承認列に承認ボタンを表示する</a:t>
+            <a:t>未承認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> , 9:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>差し戻し済みの場合は承認列に承認ボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5152,7 +5182,23 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0</a:t>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>課長承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認状況が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0, 1, 9</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -5188,7 +5234,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課長承認済みの場合は承認列に承認ボタンを表示する</a:t>
+            <a:t>課長承認済みの場合は承認列に承認ボタン又は差し戻しボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5200,7 +5246,23 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>部長承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　承認状況が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,2</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -5227,7 +5289,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>98708</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5415,7 +5477,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="638444" y="21295709"/>
+          <a:off x="638444" y="13029946"/>
           <a:ext cx="4802107" cy="4350757"/>
           <a:chOff x="533400" y="21528829"/>
           <a:chExt cx="4775200" cy="4277571"/>
@@ -5755,8 +5817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="625744" y="26383281"/>
-          <a:ext cx="6536662" cy="4530887"/>
+          <a:off x="625744" y="18117519"/>
+          <a:ext cx="6536662" cy="4530886"/>
           <a:chOff x="622300" y="23952200"/>
           <a:chExt cx="6498992" cy="4457700"/>
         </a:xfrm>
@@ -6095,7 +6157,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600344" y="17664407"/>
+          <a:off x="600344" y="9398645"/>
           <a:ext cx="6077684" cy="3003082"/>
           <a:chOff x="600344" y="17664407"/>
           <a:chExt cx="6077684" cy="3003082"/>
@@ -7470,11 +7532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA37F48D-2E50-4243-B704-9990C376E95A}">
   <dimension ref="B2:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -7496,7 +7561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" hidden="1">
       <c r="B8" s="60" t="s">
         <v>143</v>
       </c>
@@ -7508,7 +7573,7 @@
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" hidden="1">
       <c r="B9" s="61" t="s">
         <v>4</v>
       </c>
@@ -7528,7 +7593,7 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" hidden="1">
       <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
@@ -7549,7 +7614,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" hidden="1">
       <c r="B11" s="63" t="s">
         <v>120</v>
       </c>
@@ -7568,7 +7633,7 @@
       <c r="I11" s="64"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" hidden="1">
       <c r="B12" s="63" t="s">
         <v>159</v>
       </c>
@@ -7587,7 +7652,7 @@
       <c r="I12" s="64"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13" s="63" t="s">
         <v>14</v>
       </c>
@@ -7606,7 +7671,7 @@
       <c r="I13" s="64"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" hidden="1">
       <c r="B14" s="63" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +7690,7 @@
       <c r="I14" s="64"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" hidden="1">
       <c r="B15" s="63" t="s">
         <v>17</v>
       </c>
@@ -7819,7 +7884,7 @@
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" hidden="1">
       <c r="B28" s="60" t="s">
         <v>144</v>
       </c>
@@ -7831,7 +7896,7 @@
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" hidden="1">
       <c r="B29" s="61" t="s">
         <v>4</v>
       </c>
@@ -7851,7 +7916,7 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" hidden="1">
       <c r="B30" s="63" t="s">
         <v>2</v>
       </c>
@@ -7872,7 +7937,7 @@
       <c r="I30" s="64"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" hidden="1">
       <c r="B31" s="63" t="s">
         <v>132</v>
       </c>
@@ -7891,7 +7956,7 @@
       <c r="I31" s="64"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" hidden="1">
       <c r="B32" s="63" t="s">
         <v>14</v>
       </c>
@@ -7910,7 +7975,7 @@
       <c r="I32" s="64"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" hidden="1">
       <c r="B33" s="63" t="s">
         <v>15</v>
       </c>
@@ -7929,7 +7994,8 @@
       <c r="I33" s="64"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="34" spans="2:10" hidden="1"/>
+    <row r="35" spans="2:10" hidden="1">
       <c r="B35" s="60" t="s">
         <v>151</v>
       </c>
@@ -7941,7 +8007,7 @@
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" hidden="1">
       <c r="B36" s="61" t="s">
         <v>4</v>
       </c>
@@ -7961,7 +8027,7 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" hidden="1">
       <c r="B37" s="69" t="s">
         <v>2</v>
       </c>
@@ -7982,7 +8048,7 @@
       <c r="I37" s="64"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" hidden="1">
       <c r="B38" s="69" t="s">
         <v>150</v>
       </c>
@@ -8001,7 +8067,7 @@
       <c r="I38" s="64"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" hidden="1">
       <c r="B39" s="69" t="s">
         <v>148</v>
       </c>
@@ -8020,7 +8086,7 @@
       <c r="I39" s="64"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" hidden="1">
       <c r="B40" s="69" t="s">
         <v>14</v>
       </c>
@@ -8039,7 +8105,7 @@
       <c r="I40" s="64"/>
       <c r="J40" s="35"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" hidden="1">
       <c r="B41" s="69" t="s">
         <v>15</v>
       </c>
@@ -8058,7 +8124,7 @@
       <c r="I41" s="64"/>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" hidden="1">
       <c r="B42" s="69" t="s">
         <v>17</v>
       </c>
@@ -8077,7 +8143,8 @@
       <c r="I42" s="64"/>
       <c r="J42" s="35"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="43" spans="2:10" hidden="1"/>
+    <row r="44" spans="2:10" hidden="1">
       <c r="B44" s="60" t="s">
         <v>158</v>
       </c>
@@ -8089,7 +8156,7 @@
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" hidden="1">
       <c r="B45" s="61" t="s">
         <v>4</v>
       </c>
@@ -8109,7 +8176,7 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" hidden="1">
       <c r="B46" s="63" t="s">
         <v>2</v>
       </c>
@@ -8130,7 +8197,7 @@
       <c r="I46" s="64"/>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" hidden="1">
       <c r="B47" s="63" t="s">
         <v>150</v>
       </c>
@@ -8149,7 +8216,7 @@
       <c r="I47" s="64"/>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" hidden="1">
       <c r="B48" s="63" t="s">
         <v>138</v>
       </c>
@@ -8168,7 +8235,7 @@
       <c r="I48" s="64"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" hidden="1">
       <c r="B49" s="63" t="s">
         <v>14</v>
       </c>
@@ -8187,7 +8254,7 @@
       <c r="I49" s="64"/>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" hidden="1">
       <c r="B50" s="63" t="s">
         <v>15</v>
       </c>
@@ -8206,7 +8273,7 @@
       <c r="I50" s="64"/>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" hidden="1">
       <c r="B51" s="63" t="s">
         <v>17</v>
       </c>
@@ -8350,7 +8417,7 @@
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
       <c r="F62" s="41" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -8403,7 +8470,7 @@
         <v>103</v>
       </c>
       <c r="D140" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E140" s="50"/>
       <c r="F140" s="51"/>
@@ -8413,7 +8480,7 @@
       <c r="H140" s="39"/>
       <c r="I140" s="31"/>
       <c r="J140" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K140" s="36"/>
       <c r="L140" s="36"/>
@@ -8435,7 +8502,7 @@
         <v>106</v>
       </c>
       <c r="J141" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K141" s="36"/>
       <c r="L141" s="36"/>
@@ -8449,7 +8516,7 @@
         <v>104</v>
       </c>
       <c r="D142" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E142" s="50"/>
       <c r="F142" s="51"/>
@@ -8459,7 +8526,7 @@
       <c r="H142" s="39"/>
       <c r="I142" s="31"/>
       <c r="J142" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K142" s="36"/>
       <c r="L142" s="36"/>
@@ -8481,7 +8548,7 @@
         <v>107</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K143" s="36"/>
       <c r="L143" s="36"/>
@@ -8495,7 +8562,7 @@
         <v>108</v>
       </c>
       <c r="D144" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E144" s="50"/>
       <c r="F144" s="51"/>
@@ -8505,7 +8572,7 @@
       <c r="H144" s="39"/>
       <c r="I144" s="31"/>
       <c r="J144" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K144" s="36"/>
       <c r="L144" s="36"/>
@@ -8527,7 +8594,7 @@
         <v>110</v>
       </c>
       <c r="J145" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K145" s="36"/>
       <c r="L145" s="36"/>
@@ -8549,7 +8616,7 @@
       <c r="H146" s="39"/>
       <c r="I146" s="31"/>
       <c r="J146" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K146" s="36"/>
       <c r="L146" s="36"/>
@@ -8571,7 +8638,7 @@
       <c r="H147" s="39"/>
       <c r="I147" s="31"/>
       <c r="J147" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K147" s="36"/>
       <c r="L147" s="36"/>
@@ -8593,7 +8660,7 @@
       <c r="H148" s="39"/>
       <c r="I148" s="31"/>
       <c r="J148" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K148" s="36"/>
       <c r="L148" s="36"/>
@@ -8615,7 +8682,7 @@
       <c r="H149" s="39"/>
       <c r="I149" s="31"/>
       <c r="J149" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K149" s="36"/>
       <c r="L149" s="36"/>
@@ -8637,7 +8704,7 @@
       <c r="H150" s="39"/>
       <c r="I150" s="28"/>
       <c r="J150" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K150" s="36"/>
       <c r="L150" s="36"/>
@@ -8659,7 +8726,7 @@
       <c r="H151" s="39"/>
       <c r="I151" s="28"/>
       <c r="J151" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
@@ -8709,7 +8776,7 @@
       <c r="H153" s="39"/>
       <c r="I153" s="28"/>
       <c r="J153" s="36" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
@@ -8759,7 +8826,7 @@
       <c r="H155" s="39"/>
       <c r="I155" s="28"/>
       <c r="J155" s="36" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K155" s="36"/>
       <c r="L155" s="36"/>

--- a/design_feature_follow.xlsx
+++ b/design_feature_follow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanae/git/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC376DA7-0541-7549-99DE-C9F88116F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A7C374-3AF7-AE4A-BB93-1FFDE6324562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="27780" windowHeight="17500" activeTab="1" xr2:uid="{70928577-237E-EA45-85E0-75A9F5486B03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
   <si>
     <t>1. 社員同士のフォロー機能・フォローした社員の日報を一覧表示する機能</t>
     <phoneticPr fontId="1"/>
@@ -1774,22 +1774,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・フォローしている従業員を表示するindex()メソッドを追加</t>
-    <rPh sb="9" eb="12">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・テーブル形式でフォローしている従業員を表示（社員id昇順）
 ・アンフォローリンク表示（リンククリック後はfollowAction.destroy()呼び出し ）
 ・ページング表示</t>
@@ -2076,17 +2060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限id</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -2208,10 +2181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル：emp_roles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>approver_flag</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2305,29 +2274,6 @@
     <rPh sb="14" eb="17">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>職位(0:一般社員 1:課長 2:部長)</t>
-    <rPh sb="0" eb="2">
-      <t>ショクイヘゥ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イッパn</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カチョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ブチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2513,40 +2459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認状況 （0:未承認 1:課長承認済 2:部長承認済 9:差し戻し済）</t>
-    <rPh sb="0" eb="4">
-      <t>ショウニn</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミショウニn</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カチョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウニn</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブチョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウニ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">ズミ </t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>サシモドシ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>承認状況、承認・差し戻しボタンを追加</t>
     <rPh sb="0" eb="4">
       <t>ショウニn</t>
@@ -2558,6 +2470,192 @@
       <t>サシモドシ</t>
     </rPh>
     <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Report.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportConverter.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportView.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportService.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況を追加する
+職位を取得するJPQLを追加する</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況関連項目を追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ブセィオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況を追加する</t>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況を表示できるように修正</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォロイーを表示するindex()メソッドを追加</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位</t>
+    <rPh sb="0" eb="2">
+      <t>ショクイヘゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：emp_positions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approve_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位id (0:一般社員　１:課長 2:部長)</t>
+    <rPh sb="0" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認レベル (null: 承認権限なし 1:承認レベル１ 2:承認レベル２）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウニ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認状況 （0:未承認 1:一次承認済 2:最終承認済 9:差し戻し済）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミショウニn</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>１ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイセィウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サシモドシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmpPosition.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_positionsテーブルのモデルを追加する</t>
+    <rPh sb="22" eb="24">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2567,7 +2665,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2708,6 +2806,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -2917,7 +3023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3130,6 +3236,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3588,7 +3712,7 @@
                   <a:pPr algn="l"/>
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>メニューにフォロワーを追加</a:t>
+                    <a:t>メニューにフォロイーーを追加</a:t>
                   </a:r>
                   <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                 </a:p>
@@ -3596,7 +3720,7 @@
                   <a:pPr algn="l"/>
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>フォロワークリック後、フォロワー一覧ページに遷移</a:t>
+                    <a:t>フォロイーークリック後、フォロイー一覧ページに遷移</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -3749,7 +3873,7 @@
                   <a:pPr algn="l"/>
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>・フォローしている従業員を一覧表示</a:t>
+                    <a:t>・フォロイーを一覧表示</a:t>
                   </a:r>
                   <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
                 </a:p>
@@ -3939,7 +4063,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>フォロー管理</a:t>
+                  <a:t>フォロウィー管理</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
                   <a:solidFill>
@@ -4090,7 +4214,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4152900" y="15798800"/>
-            <a:ext cx="927100" cy="290334"/>
+            <a:ext cx="1031355" cy="282645"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4129,7 +4253,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>フォロー管理</a:t>
+              <a:t>フォロイー管理</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4538,7 +4662,7 @@
                 <a:pPr algn="l"/>
                 <a:r>
                   <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>・フォローしているユーザの日報を一覧表示</a:t>
+                  <a:t>・フォロウィーの日報を一覧表示</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
               </a:p>
@@ -4915,14 +5039,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1110281</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>220606</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>220605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4965,13 +5089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1043889</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5009,13 +5133,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5074,14 +5198,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>516611</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:colOff>893305</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>43051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5097,8 +5221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8944029" y="31947387"/>
-          <a:ext cx="5973090" cy="2977613"/>
+          <a:off x="8944028" y="26006370"/>
+          <a:ext cx="6349785" cy="2977613"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5130,7 +5254,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザの職位＝一般の場合</a:t>
+            <a:t>・ログインユーザの職位＝承認レベル０の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5146,7 +5270,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザの職位＝課長の場合</a:t>
+            <a:t>・ログインユーザの職位＝承認レベル１の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5186,7 +5310,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課長承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
+            <a:t>一次承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5210,7 +5334,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ログインユーザの職位＝部長の場合</a:t>
+            <a:t>・ログインユーザの職位＝承認レベル２の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5234,7 +5358,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課長承認済みの場合は承認列に承認ボタン又は差し戻しボタンを表示する</a:t>
+            <a:t>一次承認済みの場合は承認列に承認ボタン又は差し戻しボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5250,7 +5374,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部長承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
+            <a:t>最終承認済みの場合は承認列に差し戻しボタンを表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5282,13 +5406,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>98708</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5326,13 +5450,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5392,13 +5516,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5455,13 +5579,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>103929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5477,7 +5601,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="638444" y="13029946"/>
+          <a:off x="638444" y="15354692"/>
           <a:ext cx="4802107" cy="4350757"/>
           <a:chOff x="533400" y="21528829"/>
           <a:chExt cx="4775200" cy="4277571"/>
@@ -5795,13 +5919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123592</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5817,8 +5941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="625744" y="18117519"/>
-          <a:ext cx="6536662" cy="4530886"/>
+          <a:off x="625744" y="20442264"/>
+          <a:ext cx="6536662" cy="4530887"/>
           <a:chOff x="622300" y="23952200"/>
           <a:chExt cx="6498992" cy="4457700"/>
         </a:xfrm>
@@ -6135,13 +6259,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>597096</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>250625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6157,8 +6281,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600344" y="9398645"/>
-          <a:ext cx="6077684" cy="3003082"/>
+          <a:off x="600344" y="11723391"/>
+          <a:ext cx="6077684" cy="3003081"/>
           <a:chOff x="600344" y="17664407"/>
           <a:chExt cx="6077684" cy="3003082"/>
         </a:xfrm>
@@ -7115,8 +7239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F60EA56-EE42-AF4C-991D-8BFFBC21B2F5}">
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7466,7 +7590,7 @@
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7493,7 +7617,7 @@
         <v>86</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21">
@@ -7504,7 +7628,7 @@
         <v>32</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -7530,10 +7654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA37F48D-2E50-4243-B704-9990C376E95A}">
-  <dimension ref="B2:M155"/>
+  <dimension ref="B2:M163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E146" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163:M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7548,22 +7672,22 @@
   <sheetData>
     <row r="2" spans="2:10" s="30" customFormat="1">
       <c r="B2" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1">
       <c r="B8" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -7581,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>9</v>
@@ -7601,13 +7725,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
@@ -7616,17 +7740,17 @@
     </row>
     <row r="11" spans="2:10" hidden="1">
       <c r="B11" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
@@ -7635,17 +7759,17 @@
     </row>
     <row r="12" spans="2:10" hidden="1">
       <c r="B12" s="63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
@@ -7658,13 +7782,13 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
@@ -7677,13 +7801,13 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
@@ -7696,13 +7820,13 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
@@ -7711,7 +7835,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -7722,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
@@ -7742,13 +7866,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -7756,17 +7880,17 @@
     </row>
     <row r="20" spans="2:10" ht="21">
       <c r="B20" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
@@ -7775,11 +7899,11 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -7793,17 +7917,17 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -7811,38 +7935,38 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="34" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -7854,13 +7978,13 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -7872,13 +7996,13 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
@@ -7886,7 +8010,7 @@
     </row>
     <row r="28" spans="2:10" hidden="1">
       <c r="B28" s="60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
@@ -7904,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="61" t="s">
         <v>9</v>
@@ -7924,13 +8048,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -7939,17 +8063,17 @@
     </row>
     <row r="31" spans="2:10" hidden="1">
       <c r="B31" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="64"/>
@@ -7962,13 +8086,13 @@
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="64"/>
       <c r="H32" s="64"/>
@@ -7981,13 +8105,13 @@
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="64"/>
       <c r="H33" s="64"/>
@@ -7997,7 +8121,7 @@
     <row r="34" spans="2:10" hidden="1"/>
     <row r="35" spans="2:10" hidden="1">
       <c r="B35" s="60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
@@ -8015,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="61" t="s">
         <v>9</v>
@@ -8035,13 +8159,13 @@
         <v>7</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="64"/>
       <c r="H37" s="64"/>
@@ -8050,17 +8174,17 @@
     </row>
     <row r="38" spans="2:10" hidden="1">
       <c r="B38" s="69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="64"/>
@@ -8069,17 +8193,17 @@
     </row>
     <row r="39" spans="2:10" hidden="1">
       <c r="B39" s="69" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="64"/>
@@ -8092,13 +8216,13 @@
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
@@ -8111,13 +8235,13 @@
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
@@ -8130,13 +8254,13 @@
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
@@ -8144,218 +8268,251 @@
       <c r="J42" s="35"/>
     </row>
     <row r="43" spans="2:10" hidden="1"/>
-    <row r="44" spans="2:10" hidden="1">
-      <c r="B44" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-    </row>
-    <row r="45" spans="2:10" hidden="1">
-      <c r="B45" s="61" t="s">
+    <row r="44" spans="2:10">
+      <c r="B44" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E46" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="75"/>
+      <c r="F49" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="62" t="s">
+      <c r="F55" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="2:10" hidden="1">
-      <c r="B46" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="2:10" hidden="1">
-      <c r="B47" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="2:10" hidden="1">
-      <c r="B48" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="2:10" hidden="1">
-      <c r="B49" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="35"/>
-    </row>
-    <row r="50" spans="2:10" hidden="1">
-      <c r="B50" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="35"/>
-    </row>
-    <row r="51" spans="2:10" hidden="1">
-      <c r="B51" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>127</v>
+      </c>
       <c r="G56" s="48"/>
       <c r="H56" s="48"/>
       <c r="I56" s="48"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="3" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
@@ -8363,11 +8520,15 @@
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
@@ -8375,11 +8536,15 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
@@ -8387,11 +8552,15 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="3" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
@@ -8399,110 +8568,112 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" s="30" customFormat="1">
+      <c r="B68" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" s="30" customFormat="1">
+      <c r="B124" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" s="30" customFormat="1">
-      <c r="B123" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139" s="56" t="s">
+      <c r="D140" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="43"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="46"/>
+      <c r="I140" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J140" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D139" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E139" s="43"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" s="46"/>
-      <c r="I139" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J139" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="39"/>
-    </row>
-    <row r="140" spans="2:13">
-      <c r="B140" s="55">
-        <v>1</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D140" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140" s="50"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="40"/>
+      <c r="M140" s="39"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="55">
-        <v>2</v>
-      </c>
-      <c r="C141" s="32"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E141" s="50"/>
+      <c r="F141" s="51"/>
       <c r="G141" s="38" t="s">
         <v>101</v>
       </c>
       <c r="H141" s="39"/>
-      <c r="I141" s="31" t="s">
-        <v>106</v>
-      </c>
+      <c r="I141" s="31"/>
       <c r="J141" s="36" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K141" s="36"/>
       <c r="L141" s="36"/>
@@ -8510,23 +8681,21 @@
     </row>
     <row r="142" spans="2:13">
       <c r="B142" s="55">
-        <v>3</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D142" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E142" s="50"/>
-      <c r="F142" s="51"/>
+        <v>2</v>
+      </c>
+      <c r="C142" s="32"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54"/>
       <c r="G142" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H142" s="39"/>
-      <c r="I142" s="31"/>
       <c r="J142" s="36" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K142" s="36"/>
       <c r="L142" s="36"/>
@@ -8534,21 +8703,23 @@
     </row>
     <row r="143" spans="2:13">
       <c r="B143" s="55">
-        <v>4</v>
-      </c>
-      <c r="C143" s="32"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="53"/>
-      <c r="F143" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="50"/>
+      <c r="F143" s="51"/>
       <c r="G143" s="38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H143" s="39"/>
-      <c r="I143" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="I143" s="31"/>
       <c r="J143" s="36" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K143" s="36"/>
       <c r="L143" s="36"/>
@@ -8556,23 +8727,21 @@
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="55">
-        <v>5</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D144" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E144" s="50"/>
-      <c r="F144" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="C144" s="32"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="54"/>
       <c r="G144" s="38" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H144" s="39"/>
-      <c r="I144" s="31"/>
+      <c r="I144" s="31" t="s">
+        <v>106</v>
+      </c>
       <c r="J144" s="36" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K144" s="36"/>
       <c r="L144" s="36"/>
@@ -8580,65 +8749,67 @@
     </row>
     <row r="145" spans="2:13">
       <c r="B145" s="55">
-        <v>6</v>
-      </c>
-      <c r="C145" s="32"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="53"/>
-      <c r="F145" s="54"/>
+        <v>5</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E145" s="50"/>
+      <c r="F145" s="51"/>
       <c r="G145" s="38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H145" s="39"/>
-      <c r="I145" s="31" t="s">
-        <v>110</v>
-      </c>
+      <c r="I145" s="31"/>
       <c r="J145" s="36" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K145" s="36"/>
       <c r="L145" s="36"/>
       <c r="M145" s="36"/>
     </row>
-    <row r="146" spans="2:13" ht="40" customHeight="1">
+    <row r="146" spans="2:13">
       <c r="B146" s="55">
-        <v>7</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="54"/>
       <c r="G146" s="38" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H146" s="39"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="37" t="s">
-        <v>183</v>
+      <c r="I146" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J146" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="K146" s="36"/>
       <c r="L146" s="36"/>
       <c r="M146" s="36"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:13" ht="40" customHeight="1">
       <c r="B147" s="55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D147" s="38"/>
       <c r="E147" s="40"/>
       <c r="F147" s="39"/>
       <c r="G147" s="38" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="H147" s="39"/>
       <c r="I147" s="31"/>
-      <c r="J147" s="36" t="s">
-        <v>184</v>
+      <c r="J147" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="K147" s="36"/>
       <c r="L147" s="36"/>
@@ -8646,21 +8817,21 @@
     </row>
     <row r="148" spans="2:13">
       <c r="B148" s="55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D148" s="38"/>
       <c r="E148" s="40"/>
       <c r="F148" s="39"/>
       <c r="G148" s="38" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="H148" s="39"/>
       <c r="I148" s="31"/>
       <c r="J148" s="36" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K148" s="36"/>
       <c r="L148" s="36"/>
@@ -8668,21 +8839,21 @@
     </row>
     <row r="149" spans="2:13">
       <c r="B149" s="55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D149" s="38"/>
       <c r="E149" s="40"/>
       <c r="F149" s="39"/>
       <c r="G149" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H149" s="39"/>
       <c r="I149" s="31"/>
       <c r="J149" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K149" s="36"/>
       <c r="L149" s="36"/>
@@ -8690,21 +8861,21 @@
     </row>
     <row r="150" spans="2:13">
       <c r="B150" s="55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D150" s="38"/>
       <c r="E150" s="40"/>
       <c r="F150" s="39"/>
       <c r="G150" s="38" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H150" s="39"/>
-      <c r="I150" s="28"/>
+      <c r="I150" s="31"/>
       <c r="J150" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K150" s="36"/>
       <c r="L150" s="36"/>
@@ -8712,21 +8883,21 @@
     </row>
     <row r="151" spans="2:13">
       <c r="B151" s="55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" s="38"/>
       <c r="E151" s="40"/>
       <c r="F151" s="39"/>
       <c r="G151" s="38" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="H151" s="39"/>
       <c r="I151" s="28"/>
       <c r="J151" s="36" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K151" s="36"/>
       <c r="L151" s="36"/>
@@ -8734,25 +8905,21 @@
     </row>
     <row r="152" spans="2:13">
       <c r="B152" s="55">
-        <v>13</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D152" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" s="38"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="39"/>
       <c r="G152" s="38" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H152" s="39"/>
-      <c r="I152" s="28" t="s">
-        <v>164</v>
-      </c>
+      <c r="I152" s="28"/>
       <c r="J152" s="36" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K152" s="36"/>
       <c r="L152" s="36"/>
@@ -8760,23 +8927,25 @@
     </row>
     <row r="153" spans="2:13">
       <c r="B153" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D153" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
       <c r="G153" s="38" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="H153" s="39"/>
-      <c r="I153" s="28"/>
+      <c r="I153" s="28" t="s">
+        <v>160</v>
+      </c>
       <c r="J153" s="36" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
@@ -8784,25 +8953,23 @@
     </row>
     <row r="154" spans="2:13">
       <c r="B154" s="55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D154" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
       <c r="G154" s="38" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="H154" s="39"/>
-      <c r="I154" s="28" t="s">
-        <v>163</v>
-      </c>
+      <c r="I154" s="28"/>
       <c r="J154" s="36" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
@@ -8810,38 +8977,239 @@
     </row>
     <row r="155" spans="2:13">
       <c r="B155" s="55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D155" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
       <c r="G155" s="38" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="H155" s="39"/>
-      <c r="I155" s="28"/>
+      <c r="I155" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="J155" s="36" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K155" s="36"/>
       <c r="L155" s="36"/>
       <c r="M155" s="36"/>
     </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="55">
+        <v>16</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K156" s="36"/>
+      <c r="L156" s="36"/>
+      <c r="M156" s="36"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="55">
+        <v>17</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D157" s="38"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="39"/>
+      <c r="G157" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="K157" s="36"/>
+      <c r="L157" s="36"/>
+      <c r="M157" s="36"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="55">
+        <v>18</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" s="38"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="55">
+        <v>19</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" s="38"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="39"/>
+      <c r="G159" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K159" s="36"/>
+      <c r="L159" s="36"/>
+      <c r="M159" s="36"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="55">
+        <v>20</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="38"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K160" s="36"/>
+      <c r="L160" s="36"/>
+      <c r="M160" s="36"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="55">
+        <v>21</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161" s="38"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K161" s="36"/>
+      <c r="L161" s="36"/>
+      <c r="M161" s="36"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="55">
+        <v>22</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D162" s="38"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="K162" s="36"/>
+      <c r="L162" s="36"/>
+      <c r="M162" s="36"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="55">
+        <v>23</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="38"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="31"/>
+      <c r="J163" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="K163" s="36"/>
+      <c r="L163" s="36"/>
+      <c r="M163" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="J153:M153"/>
+  <mergeCells count="114">
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="J162:M162"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="J163:M163"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="J159:M159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="J160:M160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="J161:M161"/>
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="J154:M154"/>
-    <mergeCell ref="D155:F155"/>
     <mergeCell ref="G155:H155"/>
     <mergeCell ref="J155:M155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="J156:M156"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="J157:M157"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F18:I18"/>
@@ -8858,74 +9226,75 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F55:I55"/>
     <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F62:I62"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D147:F147"/>
     <mergeCell ref="D148:F148"/>
     <mergeCell ref="D149:F149"/>
     <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
     <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="G140:H140"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F63:I63"/>
     <mergeCell ref="F58:I58"/>
     <mergeCell ref="F59:I59"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="F36:I36"/>
-    <mergeCell ref="G147:H147"/>
     <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G149:H149"/>
     <mergeCell ref="G141:H141"/>
     <mergeCell ref="G142:H142"/>
     <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="G144:H144"/>
     <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D140:F141"/>
-    <mergeCell ref="D142:F143"/>
-    <mergeCell ref="D144:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D141:F142"/>
+    <mergeCell ref="D143:F144"/>
+    <mergeCell ref="D145:F146"/>
+    <mergeCell ref="D147:F147"/>
     <mergeCell ref="J140:M140"/>
     <mergeCell ref="J141:M141"/>
     <mergeCell ref="J142:M142"/>
     <mergeCell ref="J143:M143"/>
     <mergeCell ref="J144:M144"/>
     <mergeCell ref="J145:M145"/>
-    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="J146:M146"/>
     <mergeCell ref="G150:H150"/>
     <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G152:H152"/>
     <mergeCell ref="G145:H145"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="J151:M151"/>
-    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="J152:M152"/>
     <mergeCell ref="J147:M147"/>
     <mergeCell ref="J148:M148"/>
     <mergeCell ref="J149:M149"/>
     <mergeCell ref="J150:M150"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="J151:M151"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="J153:M153"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9166,18 +9535,18 @@
   <sheetData>
     <row r="2" spans="9:10">
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="9:10">
       <c r="I3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -9202,18 +9571,18 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
